--- a/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P4")</t>
+          <t>jx:area(lastCell="T4")</t>
         </r>
       </text>
     </comment>
@@ -50,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>差异详情</t>
   </si>
@@ -193,8 +193,102 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>原库存不含税成本价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原库存金额（不含税成本价）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点金额（不含税成本价）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏金额（不含税成本价）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedSnapshootCostPrice}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>untaxedC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ostAmount}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>untaxedS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tocktakingCostAmount}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>untaxedP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rofitLossCostAmount}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$[SUMPRODUCT(N3:N3:N3+0)]</t>
@@ -206,13 +300,29 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(P3:P3:P3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(Q3:Q3:Q3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(R3:R3:R3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(S3:S3:S3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(T3:T3:T3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -380,17 +490,17 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EO4"/>
+  <dimension ref="A1:ES4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,42 +789,43 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="7" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="21.75" customWidth="1"/>
-    <col min="11" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="21.125" customWidth="1"/>
-    <col min="14" max="14" width="20.75" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
-    <col min="16" max="16" width="19.375" customWidth="1"/>
+    <col min="10" max="11" width="21.75" customWidth="1"/>
+    <col min="12" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="15" max="16" width="21.125" customWidth="1"/>
+    <col min="17" max="18" width="20.75" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
+    <col min="20" max="20" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:149" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -835,8 +946,12 @@
       <c r="EM1" s="5"/>
       <c r="EN1" s="5"/>
       <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
     </row>
-    <row r="2" spans="1:145" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:149" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -868,27 +983,35 @@
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -1008,8 +1131,12 @@
       <c r="EG2" s="5"/>
       <c r="EH2" s="5"/>
       <c r="EI2" s="5"/>
+      <c r="EJ2" s="5"/>
+      <c r="EK2" s="5"/>
+      <c r="EL2" s="5"/>
+      <c r="EM2" s="5"/>
     </row>
-    <row r="3" spans="1:145" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:149" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1028,38 +1155,50 @@
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="P3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="R3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:145" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:149" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1072,22 +1211,31 @@
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
